--- a/medicine/Handicap/Autisme_Europe/Autisme_Europe.xlsx
+++ b/medicine/Handicap/Autisme_Europe/Autisme_Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autisme Europe est une association internationale de type AISBL créée en 1983[1]. Comptant 23 associations membres à ses débuts, elle fédère désormais 80 associations du domaine de l'autisme dans 38 pays. Elle édite un magazine, intitulé Link.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autisme Europe est une association internationale de type AISBL créée en 1983. Comptant 23 associations membres à ses débuts, elle fédère désormais 80 associations du domaine de l'autisme dans 38 pays. Elle édite un magazine, intitulé Link.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les objectifs d'Autisme Europe, définis en 1999, visent à représenter les personnes autistes auprès des institutions européennes, promouvoir leurs droits et leur dignité, sensibiliser aux prises en charge, à l'éducation et au bien-être, contacter et coordonner les ONG du domaine de l'autisme, échanger informations et expériences[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les objectifs d'Autisme Europe, définis en 1999, visent à représenter les personnes autistes auprès des institutions européennes, promouvoir leurs droits et leur dignité, sensibiliser aux prises en charge, à l'éducation et au bien-être, contacter et coordonner les ONG du domaine de l'autisme, échanger informations et expériences. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Prises de position</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vice-président d'Autisme Europe s'est opposé à la censure du film français Le Mur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vice-président d'Autisme Europe s'est opposé à la censure du film français Le Mur.
 </t>
         </is>
       </c>
